--- a/prediction_2000_non_toxic.xlsx
+++ b/prediction_2000_non_toxic.xlsx
@@ -14421,7 +14421,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>48.53</t>
+          <t>48.54</t>
         </is>
       </c>
       <c r="B875" t="n">
@@ -22101,7 +22101,7 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="B1355" t="n">
